--- a/data/hotels_by_city/Dallas/Dallas_shard_761.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_761.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1337 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r581296118-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109044</t>
+  </si>
+  <si>
+    <t>581296118</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>I stayed here for the weekend and was very happy with everything. I got to the hotel before the stated check-in time and the hotel was more than willing to accommodate my early arrival. The room was clean and very inviting.I will definitely book a room here again in the future.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r579337900-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>579337900</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Big great room</t>
+  </si>
+  <si>
+    <t>There room are clean and rooming, too run around in lol. but the stay and the place is beautiful and the service was great and there were nice and  kind people. Good place to bring your family and special friends to I tell you that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r576730209-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>576730209</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Great stay at townplace</t>
+  </si>
+  <si>
+    <t>I checked in at townplace in Irving Texas and it’s the usual experience very warming and welcoming front desk clerk Kristen Is always upbeat and very helpful she remembered me on a first name basis which is very nice and hardly ever done these days!!! Clean rooms, spacious parking, great breakfast and dinner, will definitely be coming here for any future while in the dfw area... A+++++++++++++++++++++</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572674791-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>572674791</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Spacious room, excellent condition</t>
+  </si>
+  <si>
+    <t>This was a nice, clean hotel in a convenient location.  I only stayed 1 night encountered to a conference, but I had zero complaints.  Restaurants and shopping were near by.  Easy drive from airport.  Good breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>This was a nice, clean hotel in a convenient location.  I only stayed 1 night encountered to a conference, but I had zero complaints.  Restaurants and shopping were near by.  Easy drive from airport.  Good breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572451159-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>572451159</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>could not ask for any better stay From Breakfast to the outside grill. Front desk staff will go out of your way to make stay enjoyable. need wine bottle opener and Kristen went out and brought one at CVS across the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>could not ask for any better stay From Breakfast to the outside grill. Front desk staff will go out of your way to make stay enjoyable. need wine bottle opener and Kristen went out and brought one at CVS across the streetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572265016-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>572265016</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Thanks Paola!!</t>
+  </si>
+  <si>
+    <t>My team and I were in from out of town opening a new location and needed a few extra rooms for some teammates we had coming in from out of town. After searching all over Irving for a hotel room while a large convention is going on and Texas Motor Speedway is sold out, she was able to make a couple rooms happen for us at the hotel so our entire team could be together. Love the hotel and love Paola’s customer service!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My team and I were in from out of town opening a new location and needed a few extra rooms for some teammates we had coming in from out of town. After searching all over Irving for a hotel room while a large convention is going on and Texas Motor Speedway is sold out, she was able to make a couple rooms happen for us at the hotel so our entire team could be together. Love the hotel and love Paola’s customer service!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571962851-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>571962851</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>Kristen was amazing. She should be managing her own hotel. She made a bad situation amazing...that's how you add customer value and get repeat clients. Great room..good breakfast and it was clean and fresh. It was wunderbar!! The only super annoying thing was continual phone calls for us to check out. We checked in at 2am...at least give us an extra hour to leave knocks..phone calls do not help..but of course Kristen was gone so another young woman was at the desk. Other than that hiccup, great stay. We will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571810187-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>571810187</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Nice place but the smell</t>
+  </si>
+  <si>
+    <t>The place was nice for what it is. Kristen at front desk was beyond lovely-even walked us to our room. Only issue-the smell-I do not know if it was the carpeting or some mold but it was terrible and everywhere. Very thankful we were here for only 1 night.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>The place was nice for what it is. Kristen at front desk was beyond lovely-even walked us to our room. Only issue-the smell-I do not know if it was the carpeting or some mold but it was terrible and everywhere. Very thankful we were here for only 1 night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571790069-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>571790069</t>
+  </si>
+  <si>
+    <t>Welcoming</t>
+  </si>
+  <si>
+    <t>As someone who works in hospitals myself I was very pleased with the pleasant welcome from Jarred the Front Desk Manager, I think silent check ins are awkward but he made great small talk! The property is nice and the room was great! I work in hotels so of course I look at those key indicators of bathroom counters, bed making, closet and trash cans! All perfect! The toilet had a little issues flushing or the knob would stick but wasn’t the worst thing that has occurred. The business center computer kept restarting when trying to check my email, so that was frustrating but eventually I got what I needed. I love love love the hot coffee at all times! Breakfast was great as expected, and my stay over housekeeping service was perfect! They even washed my personal travel mugs I brought with me so that was touching!I’d definitely return and recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>As someone who works in hospitals myself I was very pleased with the pleasant welcome from Jarred the Front Desk Manager, I think silent check ins are awkward but he made great small talk! The property is nice and the room was great! I work in hotels so of course I look at those key indicators of bathroom counters, bed making, closet and trash cans! All perfect! The toilet had a little issues flushing or the knob would stick but wasn’t the worst thing that has occurred. The business center computer kept restarting when trying to check my email, so that was frustrating but eventually I got what I needed. I love love love the hot coffee at all times! Breakfast was great as expected, and my stay over housekeeping service was perfect! They even washed my personal travel mugs I brought with me so that was touching!I’d definitely return and recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569795169-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>569795169</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great place for a long term stay.</t>
+  </si>
+  <si>
+    <t>We were in town for 12 nights and really enjoyed the 2 bedroom suite that we stayed in.  It was very quiet inside the room and you couldn't hear the hall noise.  The staff was friendly and helpful.  Jarred Lee knew us by name and helped with any issues or questions.  We enjoyed our stay there.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569511700-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>569511700</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Amazing Stay!!!</t>
+  </si>
+  <si>
+    <t>I travel to DFW area often and this was my first stay at the hotel. I must say I am very satisfied!! The rooms are spacious and very comfy. Staff are very friendly.. Made sure I had what I needed.......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569341366-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>569341366</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best stays I've had. </t>
+  </si>
+  <si>
+    <t>Great Friendly Caring crew. From the 1st phone call to check in early. From the check out. Always made sure we had what we needed. The General Manager. Grady Seim came up to check us in. Let us know since they are remodeling the gym. We were allowed to use the one next door. Let us know when dinner was and as well what time to come up for Breakfast. Kristen at the front desk was friendly and had a welcoming smile on her face the whole experience. Would love to have her at my location. I will come back here to stay for now on. Cant feel more welcomed from the whole crew then walking thru that sliding glass door. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Friendly Caring crew. From the 1st phone call to check in early. From the check out. Always made sure we had what we needed. The General Manager. Grady Seim came up to check us in. Let us know since they are remodeling the gym. We were allowed to use the one next door. Let us know when dinner was and as well what time to come up for Breakfast. Kristen at the front desk was friendly and had a welcoming smile on her face the whole experience. Would love to have her at my location. I will come back here to stay for now on. Cant feel more welcomed from the whole crew then walking thru that sliding glass door. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r560076195-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>560076195</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Inexpensive, but Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I often work in the DFW area and have stayed at a group of hotels in the Irving area.  The one that I have stayed at the most if the TownePlace Suites by Marriott.First of all, you need to know this is the lower end of the Marriott chain and is more like an extended stay.  The rooms have kitchenettes with a fridge, stove, and microwave.  While this hotel is on the lower end, the staff has been tremendous.  They call me by name when I get there, when I leave, and when they see me during the week.  If I ever have any issues or special requests, they take care of it for me.The hotel is close enough to walk to a few fast food places, and if using a car, close to some good sit downs too.For the money, this is a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I often work in the DFW area and have stayed at a group of hotels in the Irving area.  The one that I have stayed at the most if the TownePlace Suites by Marriott.First of all, you need to know this is the lower end of the Marriott chain and is more like an extended stay.  The rooms have kitchenettes with a fridge, stove, and microwave.  While this hotel is on the lower end, the staff has been tremendous.  They call me by name when I get there, when I leave, and when they see me during the week.  If I ever have any issues or special requests, they take care of it for me.The hotel is close enough to walk to a few fast food places, and if using a car, close to some good sit downs too.For the money, this is a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r556224111-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>556224111</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Nice little TownePlace</t>
+  </si>
+  <si>
+    <t>Stayed here when traveling to compare to other close range extended stay hotels, room was fine, but had quite a few cleanliness issues. Around the property, there’s a few things they haven’t kept up with. This specific property has a few things other TownePlaces don’t, such as an outdoor basketball court (though the backboard sags a bit), they also have an evening reception, although the food is almost always terrible and only lemonade for a non-alcoholic beverage choice, but I guess they’re not required to do it, so.. Breakfast is fine, has pretty extensive offerings.Overall not too bad of a property, would returnMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here when traveling to compare to other close range extended stay hotels, room was fine, but had quite a few cleanliness issues. Around the property, there’s a few things they haven’t kept up with. This specific property has a few things other TownePlaces don’t, such as an outdoor basketball court (though the backboard sags a bit), they also have an evening reception, although the food is almost always terrible and only lemonade for a non-alcoholic beverage choice, but I guess they’re not required to do it, so.. Breakfast is fine, has pretty extensive offerings.Overall not too bad of a property, would returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r555065169-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>555065169</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Friendly check in, clean room, good breakfast</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed my stay. Kristen was friendly at check-in, she explained all the amenities and made good conversation. Thanks for keeping me in the same building so I didn’t have to re-park my car. Also liked the welcome bag for platinum members. Redeemed points for this stay and got a great deal (Category 1). The hotel is older but well maintained and clean. Being a Towneplace, room was obviously large. Though I only stayed one night, I’d definitely be comfortable staying long term. Free breakfast, parking, and WiFi were all nice. My favorite part by far is the hotel market is stocked with tons of Blue Bell!! Wish I had the chance to get some. I would definitely return to this place. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed my stay. Kristen was friendly at check-in, she explained all the amenities and made good conversation. Thanks for keeping me in the same building so I didn’t have to re-park my car. Also liked the welcome bag for platinum members. Redeemed points for this stay and got a great deal (Category 1). The hotel is older but well maintained and clean. Being a Towneplace, room was obviously large. Though I only stayed one night, I’d definitely be comfortable staying long term. Free breakfast, parking, and WiFi were all nice. My favorite part by far is the hotel market is stocked with tons of Blue Bell!! Wish I had the chance to get some. I would definitely return to this place. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r537875462-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>537875462</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>The Godess at The Front Desk</t>
+  </si>
+  <si>
+    <t>Beautiful service and staffing. Felt like I was at the ritz Carlton. Shout outs to them too btw. But my stay here was magical. By me staying here it opened up new opportunity in my life. Thank you Paola for being you. - GODMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful service and staffing. Felt like I was at the ritz Carlton. Shout outs to them too btw. But my stay here was magical. By me staying here it opened up new opportunity in my life. Thank you Paola for being you. - GODMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r536282456-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>536282456</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Amazing Staff</t>
+  </si>
+  <si>
+    <t>Had a great experience staying in this hotel. Loved to see the Art presentation by staff in the room on arrival after a long travel. Great front desk staff and overall a great place to stay. Always a pleasure to stay in Townplace. Would love to visit again in future.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r530174288-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>530174288</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>My stay at the TownPlace Suites</t>
+  </si>
+  <si>
+    <t>I had a lovely 2 bedroom in this hotel. The service was good and the breakfast was also good. The manager was very friendly to us. He held our luggage for us until we left for our return flight home. I would stay there every time that I return to Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Grady S, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I had a lovely 2 bedroom in this hotel. The service was good and the breakfast was also good. The manager was very friendly to us. He held our luggage for us until we left for our return flight home. I would stay there every time that I return to Dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504525453-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>504525453</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Quality and value</t>
+  </si>
+  <si>
+    <t>I stayed here to be close to the airport for an early morning flight, and it was a good stay. I hope they will remain a Category 1 Marriott Rewards property, since there are so few of those these days. They do have a shuttle to take you to places within 5 miles of the hotel, but NOT to the airport. It seems a 'little off the beaten path' but my room was clean and the bed was comfortable. I would stay here again, as long a they stay Category 1.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here to be close to the airport for an early morning flight, and it was a good stay. I hope they will remain a Category 1 Marriott Rewards property, since there are so few of those these days. They do have a shuttle to take you to places within 5 miles of the hotel, but NOT to the airport. It seems a 'little off the beaten path' but my room was clean and the bed was comfortable. I would stay here again, as long a they stay Category 1.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504347990-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>504347990</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Great room at great price</t>
+  </si>
+  <si>
+    <t>Well kept with a nice pool and basketball court.  There was variety with the hot breakfast each day.  For the price, this was a great hotel.  Location to the airport and surrounding restaurants and businesses was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well kept with a nice pool and basketball court.  There was variety with the hot breakfast each day.  For the price, this was a great hotel.  Location to the airport and surrounding restaurants and businesses was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504199702-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>504199702</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed at this property for work last week and enjoyed the stay! The staff members are kind and very helpful. Check-in was a breeze. Great breakfast options and the room was clean and set up and described in the description. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this property for work last week and enjoyed the stay! The staff members are kind and very helpful. Check-in was a breeze. Great breakfast options and the room was clean and set up and described in the description. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503856652-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>503856652</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of days in July 2017. The place was spacious, had awesome breakfast options, The social evenings were awesome as well. My only gripe, because of which I'm reducing 1 star is the slow complimentary internet. But they do have a paid option if it floats your boat. Otherwise a really good experience.-Srinivas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of days in July 2017. The place was spacious, had awesome breakfast options, The social evenings were awesome as well. My only gripe, because of which I'm reducing 1 star is the slow complimentary internet. But they do have a paid option if it floats your boat. Otherwise a really good experience.-Srinivas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503338556-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>503338556</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Superior staff and food!</t>
+  </si>
+  <si>
+    <t>From the moment we arrived the staff went above and beyond to make us feel welcome.  The 'light dinner' was more than a snack, more like a full meal.  Staff remembered our name the entire stay which does not happen at your typical hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>From the moment we arrived the staff went above and beyond to make us feel welcome.  The 'light dinner' was more than a snack, more like a full meal.  Staff remembered our name the entire stay which does not happen at your typical hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503012146-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>503012146</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Great hotel - free breakfast and dinner!</t>
+  </si>
+  <si>
+    <t>They surprised me with free dinner monday-wednesday to go along with the already free breakfast! Awesome customer service from Paola at the front desk upon check in.  Thanks Townplace, i'll be back next time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>They surprised me with free dinner monday-wednesday to go along with the already free breakfast! Awesome customer service from Paola at the front desk upon check in.  Thanks Townplace, i'll be back next time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r490518567-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>490518567</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms, great friendly service, good price, convenient to restaurants</t>
+  </si>
+  <si>
+    <t>I stayed here for one evening in June 2017 after flying down to Texas for a graduation.  I only wanted to find a reasonably priced, decent hotel close to Love Field, but this place was a pleasant surprise.The front desk staff was extraordinarily friendly and helpful, and the room was clean and spacious (we had a two-bedroom suite).  The hotel was within a block of several restaurants and it was nice to have several options without having to get into the car. The front desk was very helpful in suggesting nearby places to eat.I also commend the hotel that the internet speed was acceptable and usable at 5Mps as Marriott chain hotels are notorious for having dreadfully slow internet speeds. They did offer the "upgrade" if you paid more, but it was nice that it wasn't necessary.  I even streamed a soccer game perfectly on my laptop while there.This hotel gave me a very positive impression of TownPlace Suites and should be a model for this type of hotel on how to do it right!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for one evening in June 2017 after flying down to Texas for a graduation.  I only wanted to find a reasonably priced, decent hotel close to Love Field, but this place was a pleasant surprise.The front desk staff was extraordinarily friendly and helpful, and the room was clean and spacious (we had a two-bedroom suite).  The hotel was within a block of several restaurants and it was nice to have several options without having to get into the car. The front desk was very helpful in suggesting nearby places to eat.I also commend the hotel that the internet speed was acceptable and usable at 5Mps as Marriott chain hotels are notorious for having dreadfully slow internet speeds. They did offer the "upgrade" if you paid more, but it was nice that it wasn't necessary.  I even streamed a soccer game perfectly on my laptop while there.This hotel gave me a very positive impression of TownPlace Suites and should be a model for this type of hotel on how to do it right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r487453377-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>487453377</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay with huge room.</t>
+  </si>
+  <si>
+    <t>We stayed here for the Byron Nelson golf tournament. We had 3 couples and we're trying to stay as cheap as possible. This hotel has a 2 bedroom suite with a pullout couch. The room was huge, 2 beds were in their own separate rooms with doors and closets. The pullout couch wasn't that great, but it got the job done! The room had a full kitchen with a fridge, dishwasher, microwave, and even an oven. It even had plates and silverware! Overall this was a great hotel, there was only one downside. The hotel has a shuttle service, but it doesn't run on the weekends, but other than that, it's a great hotel and located close to places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for the Byron Nelson golf tournament. We had 3 couples and we're trying to stay as cheap as possible. This hotel has a 2 bedroom suite with a pullout couch. The room was huge, 2 beds were in their own separate rooms with doors and closets. The pullout couch wasn't that great, but it got the job done! The room had a full kitchen with a fridge, dishwasher, microwave, and even an oven. It even had plates and silverware! Overall this was a great hotel, there was only one downside. The hotel has a shuttle service, but it doesn't run on the weekends, but other than that, it's a great hotel and located close to places to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r473490057-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>473490057</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay - Friendly Staff</t>
+  </si>
+  <si>
+    <t>We stayed here for about 20 days. The main reason we stayed here was location. This was very close to my office and also close to a place i was searching for a house i wanted to move in. Stay was pleasant and nice. The reason i am writing this review is for a specific reason. Last day when i was checking out, in haste i dropped my wallet in the room. I went back to my new home and went busy setting up things and also i was busy taking care of the work.At the evening i was checking for my wallet i could not find it. i Called all the place i went and nobody could find the wallet. Then i called the hotel, staff was very helpful she herself went in the room ( room was still empty) and search for the wallet, but she could not find it there. Then she called the maintenance lady and then called me back saying they found the wallet and kept in a safe locker. I was so surprised, and not expecting it.. i had everything in the wallet including my credit cards and cash.. The maintenance lady was so nice to us even the other days.. i am very thankful to the lady and also the other staff help me to find the wallet.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for about 20 days. The main reason we stayed here was location. This was very close to my office and also close to a place i was searching for a house i wanted to move in. Stay was pleasant and nice. The reason i am writing this review is for a specific reason. Last day when i was checking out, in haste i dropped my wallet in the room. I went back to my new home and went busy setting up things and also i was busy taking care of the work.At the evening i was checking for my wallet i could not find it. i Called all the place i went and nobody could find the wallet. Then i called the hotel, staff was very helpful she herself went in the room ( room was still empty) and search for the wallet, but she could not find it there. Then she called the maintenance lady and then called me back saying they found the wallet and kept in a safe locker. I was so surprised, and not expecting it.. i had everything in the wallet including my credit cards and cash.. The maintenance lady was so nice to us even the other days.. i am very thankful to the lady and also the other staff help me to find the wallet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r465197873-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>465197873</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>basic overnight accommodations</t>
+  </si>
+  <si>
+    <t>nothing fancy here, basic in room features and the typical lower market treatment.  i was a good price and clean, so no major complaints, not just tops in this market.  The location is right in Las Colinas, close to everything, so if you are on a budget and can get a good rate you can't go wrong.  There is a small sofa sleeper in the main room if neededMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Maxwell P, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>nothing fancy here, basic in room features and the typical lower market treatment.  i was a good price and clean, so no major complaints, not just tops in this market.  The location is right in Las Colinas, close to everything, so if you are on a budget and can get a good rate you can't go wrong.  There is a small sofa sleeper in the main room if neededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r462835823-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>462835823</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Older but Nice property</t>
+  </si>
+  <si>
+    <t>After a careful selection of Hotels in the area I booked this hotel. For 99 a night, I couldn't find a hotel that had a separated living area and a kitchenette inside the room. So like most of my reviews I  have a pro and cons section. 
+Pro's- The Hotel sits in a major area that is easy access to most anything you want and the area is very nice and seems to be a low crime area. The parking was very easy and not hard to find a spot even when the Hotel seemed full. Check in was fast and the lady at the desk was very nice and helpful. I used the Marriott application on my smart phone for the first time and made some room request all of which were finished way before i reached the Hotel. The room was very clean and well laid out. The pull out bed in the living room was a nice feature. The tv's worked very well and the kitchen was well stocked. The bed in the room was super soft and comfy. The breakfast that is provided is one of the best I have ever had while staying at a Hotel and far exceeded my expectations.  
+Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts...After a careful selection of Hotels in the area I booked this hotel. For 99 a night, I couldn't find a hotel that had a separated living area and a kitchenette inside the room. So like most of my reviews I  have a pro and cons section. Pro's- The Hotel sits in a major area that is easy access to most anything you want and the area is very nice and seems to be a low crime area. The parking was very easy and not hard to find a spot even when the Hotel seemed full. Check in was fast and the lady at the desk was very nice and helpful. I used the Marriott application on my smart phone for the first time and made some room request all of which were finished way before i reached the Hotel. The room was very clean and well laid out. The pull out bed in the living room was a nice feature. The tv's worked very well and the kitchen was well stocked. The bed in the room was super soft and comfy. The breakfast that is provided is one of the best I have ever had while staying at a Hotel and far exceeded my expectations.  Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts to reach the staff at the front desk a clerk came to our door. She was very rude and told me" you hung up on me" after i told her the phone did not work.It took until the next morning for  maintenance to fix the issue. The clerk i stated about above later on was very nice and i had no other issues with her. The room does not match the layout as provided by the website and this needs to be addressed for the future. The property is in need of a much needed update all the way around and is showing its age. In all I would give this hotel 4 out of 5 stars and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maxwell P, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>After a careful selection of Hotels in the area I booked this hotel. For 99 a night, I couldn't find a hotel that had a separated living area and a kitchenette inside the room. So like most of my reviews I  have a pro and cons section. 
+Pro's- The Hotel sits in a major area that is easy access to most anything you want and the area is very nice and seems to be a low crime area. The parking was very easy and not hard to find a spot even when the Hotel seemed full. Check in was fast and the lady at the desk was very nice and helpful. I used the Marriott application on my smart phone for the first time and made some room request all of which were finished way before i reached the Hotel. The room was very clean and well laid out. The pull out bed in the living room was a nice feature. The tv's worked very well and the kitchen was well stocked. The bed in the room was super soft and comfy. The breakfast that is provided is one of the best I have ever had while staying at a Hotel and far exceeded my expectations.  
+Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts...After a careful selection of Hotels in the area I booked this hotel. For 99 a night, I couldn't find a hotel that had a separated living area and a kitchenette inside the room. So like most of my reviews I  have a pro and cons section. Pro's- The Hotel sits in a major area that is easy access to most anything you want and the area is very nice and seems to be a low crime area. The parking was very easy and not hard to find a spot even when the Hotel seemed full. Check in was fast and the lady at the desk was very nice and helpful. I used the Marriott application on my smart phone for the first time and made some room request all of which were finished way before i reached the Hotel. The room was very clean and well laid out. The pull out bed in the living room was a nice feature. The tv's worked very well and the kitchen was well stocked. The bed in the room was super soft and comfy. The breakfast that is provided is one of the best I have ever had while staying at a Hotel and far exceeded my expectations.  Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts to reach the staff at the front desk a clerk came to our door. She was very rude and told me" you hung up on me" after i told her the phone did not work.It took until the next morning for  maintenance to fix the issue. The clerk i stated about above later on was very nice and i had no other issues with her. The room does not match the layout as provided by the website and this needs to be addressed for the future. The property is in need of a much needed update all the way around and is showing its age. In all I would give this hotel 4 out of 5 stars and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r462520014-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>462520014</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>A nice place to stay with easy access</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights to have easy access to freeways and be in a quiet location.  The hotel is older &amp; could stand a remodel, but it's clean and doesn't smell!  The staff is friendly and professional from the front desk personnel, housekeeping, grounds and dining room staff.Breakfast was a pleasant surprise.  All made onsite, not frozen and reheated.  We stayed in a room with 2 bedrooms with queen beds.  There is a fully furnished kitchen, which was nice for snacks and reheating leftovers from dinner the night before.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights to have easy access to freeways and be in a quiet location.  The hotel is older &amp; could stand a remodel, but it's clean and doesn't smell!  The staff is friendly and professional from the front desk personnel, housekeeping, grounds and dining room staff.Breakfast was a pleasant surprise.  All made onsite, not frozen and reheated.  We stayed in a room with 2 bedrooms with queen beds.  There is a fully furnished kitchen, which was nice for snacks and reheating leftovers from dinner the night before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r458743271-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>458743271</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Excited to go home.</t>
+  </si>
+  <si>
+    <t>I stay here a lot. I love to stay this hotel because they make you like you are at your own home. I will continue to stay there. I wish they will still offer marriot points w money.  There breakfast is so nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Maxwell P, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>I stay here a lot. I love to stay this hotel because they make you like you are at your own home. I will continue to stay there. I wish they will still offer marriot points w money.  There breakfast is so nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r458138718-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>458138718</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I felt safe and I appreciated all the personnel that I came in contact with.  Great place to stay. Great location with several business around us and great amenities. I enjoyed breakfast every morning and dinner twice a week.  The laundry room was big and available when needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Maxwell P, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>I felt safe and I appreciated all the personnel that I came in contact with.  Great place to stay. Great location with several business around us and great amenities. I enjoyed breakfast every morning and dinner twice a week.  The laundry room was big and available when needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r457876666-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>457876666</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>Friendly environment</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay. The staff is friendly and always willing to help. The hotel is closed to the market and you can get all the necessary items. Its an accessible location with a peaceful environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Maxwell P, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2017</t>
+  </si>
+  <si>
+    <t>We had a pleasant stay. The staff is friendly and always willing to help. The hotel is closed to the market and you can get all the necessary items. Its an accessible location with a peaceful environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r420899039-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>420899039</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and Close</t>
+  </si>
+  <si>
+    <t>Great hotel for a quick in and out business trip. The staff was friendly, my room was large and comfortable with a great Air conditioning unit. The beds weren't anything special but I slept well and you can't beat the location as it's close to restaurants and close to the airport. I wouldn't hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>CarterHord, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel for a quick in and out business trip. The staff was friendly, my room was large and comfortable with a great Air conditioning unit. The beds weren't anything special but I slept well and you can't beat the location as it's close to restaurants and close to the airport. I wouldn't hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r408987803-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>408987803</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel for business travel</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel when in town on business. I had a nice room on the ground floor with a kitchen equipped with the basics. The hotel has a better than average continental breakfast buffet which was appreciated! I used the outdoor pool at the hotel as it was extremely hot the week I was there. The pool was very clean and well maintained. The room however, was hit and miss as far as cleaning. One day no one came at all. I complained the following day because it was near the end of the day and still the room had not been touched. The person at the desk said they would send someone shortly and a couple of hours later they came and cleaned the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>CarterHord, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>I spent a week at this hotel when in town on business. I had a nice room on the ground floor with a kitchen equipped with the basics. The hotel has a better than average continental breakfast buffet which was appreciated! I used the outdoor pool at the hotel as it was extremely hot the week I was there. The pool was very clean and well maintained. The room however, was hit and miss as far as cleaning. One day no one came at all. I complained the following day because it was near the end of the day and still the room had not been touched. The person at the desk said they would send someone shortly and a couple of hours later they came and cleaned the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r398654160-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>398654160</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky floors. Sticky carpet.  Sticky bathroom. </t>
+  </si>
+  <si>
+    <t>Just a gross feeling walking around. Everything is sticky and the air is damp.  I'm not sure I'll consider this place again and I travel every week and stay at Marriott chains most of the time. This place's front desk and lobby was darkish too. A little bright would be nice.  MoreShow less</t>
+  </si>
+  <si>
+    <t>CarterHord, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2016</t>
+  </si>
+  <si>
+    <t>Just a gross feeling walking around. Everything is sticky and the air is damp.  I'm not sure I'll consider this place again and I travel every week and stay at Marriott chains most of the time. This place's front desk and lobby was darkish too. A little bright would be nice.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r389234085-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>389234085</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice pool, quite surrounding, good nearby restaurants, well built fitness center, clean rooms. Felt like Home.Breakfast was more detailed and always in abundance. Staff was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r386234431-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>386234431</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>The hotel was clean and we didn't have any problems with noise.  Breakfast was ok, nothing great on our first day so we all skipped it on our second day.  We had a 2 bedroom suite and one of the main reason's I chose the TownePlace Suites over other hotels was because it advertised a Queen bed in each bedroom.  However,  the rooms really only had full size beds so it didn't work out so great for us.  Their website and my reservation both say "2 Bedroom Suite, Bedroom 1: 1 Queen, Bedroom 2: 1 Queen, Sofa bed, Bathrooms: 1"If I had known it was just full size beds I never would have booked this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>CarterHord, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean and we didn't have any problems with noise.  Breakfast was ok, nothing great on our first day so we all skipped it on our second day.  We had a 2 bedroom suite and one of the main reason's I chose the TownePlace Suites over other hotels was because it advertised a Queen bed in each bedroom.  However,  the rooms really only had full size beds so it didn't work out so great for us.  Their website and my reservation both say "2 Bedroom Suite, Bedroom 1: 1 Queen, Bedroom 2: 1 Queen, Sofa bed, Bathrooms: 1"If I had known it was just full size beds I never would have booked this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r378670862-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>378670862</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Very good hotel, but thin walls, not so great breakfast</t>
+  </si>
+  <si>
+    <t>My husband and I really enjoyed our stay. The hotel was clean, we loved the suite amenities and staff is very friendly. However the hot breakfast came short with serving just hot eggs, but no potato or meat options. The fruit and cereal was plentiful though. Also the walls were paper thin and we could hear the conversation in the room next to us and a crying baby in the other. Other than that we liked it and we'd stay there again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r363178290-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>363178290</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Not the Best, Not the Worst</t>
+  </si>
+  <si>
+    <t>I stayed on Points this past weekend. I asked 5 Days in advance for an upgrade because on Marriott's Website it wasn't available for Points but it was available for Purchase. What concerns me is that I felt the Front Desk staff was inconsistent in providing an answer for me. 5 Days in advance, a Night Auditor told me only the GM could give upgrades. Very Odd but I said ok, I may have interrupted his nap time at 1AM. Girl at the Desk 2 Days before I checked in said that I would have to see the Day of. The Day of, the Girl at the Desk says that they have an upgrade available, goes to the back office to talk to somebody, less than a minute later gets back to the desk and the upgrade disappeared.
+The Studio Queen is a tight squeeze but we made it work. Im a Marriott Elite Member who came to stay on a Weekend that wasn't busy and not only was lied to about an Upgrade, but was put in a Handicapped Accessible room (206) when the girl at the desk the evening after i checked in said they had plenty of Studios to sell.
+Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts...I stayed on Points this past weekend. I asked 5 Days in advance for an upgrade because on Marriott's Website it wasn't available for Points but it was available for Purchase. What concerns me is that I felt the Front Desk staff was inconsistent in providing an answer for me. 5 Days in advance, a Night Auditor told me only the GM could give upgrades. Very Odd but I said ok, I may have interrupted his nap time at 1AM. Girl at the Desk 2 Days before I checked in said that I would have to see the Day of. The Day of, the Girl at the Desk says that they have an upgrade available, goes to the back office to talk to somebody, less than a minute later gets back to the desk and the upgrade disappeared.The Studio Queen is a tight squeeze but we made it work. Im a Marriott Elite Member who came to stay on a Weekend that wasn't busy and not only was lied to about an Upgrade, but was put in a Handicapped Accessible room (206) when the girl at the desk the evening after i checked in said they had plenty of Studios to sell.Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts &amp; Hiltons across the country and if I ever have a question &amp; the answer is NO, i would rather know that its a no the first time and not get the run around. (To the GM, AGM, or whoever keeps track of these, please ensure your Front Desk Staff at lease adds Guest Requests to our Profiles and not just let the go unnoticed)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed on Points this past weekend. I asked 5 Days in advance for an upgrade because on Marriott's Website it wasn't available for Points but it was available for Purchase. What concerns me is that I felt the Front Desk staff was inconsistent in providing an answer for me. 5 Days in advance, a Night Auditor told me only the GM could give upgrades. Very Odd but I said ok, I may have interrupted his nap time at 1AM. Girl at the Desk 2 Days before I checked in said that I would have to see the Day of. The Day of, the Girl at the Desk says that they have an upgrade available, goes to the back office to talk to somebody, less than a minute later gets back to the desk and the upgrade disappeared.
+The Studio Queen is a tight squeeze but we made it work. Im a Marriott Elite Member who came to stay on a Weekend that wasn't busy and not only was lied to about an Upgrade, but was put in a Handicapped Accessible room (206) when the girl at the desk the evening after i checked in said they had plenty of Studios to sell.
+Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts...I stayed on Points this past weekend. I asked 5 Days in advance for an upgrade because on Marriott's Website it wasn't available for Points but it was available for Purchase. What concerns me is that I felt the Front Desk staff was inconsistent in providing an answer for me. 5 Days in advance, a Night Auditor told me only the GM could give upgrades. Very Odd but I said ok, I may have interrupted his nap time at 1AM. Girl at the Desk 2 Days before I checked in said that I would have to see the Day of. The Day of, the Girl at the Desk says that they have an upgrade available, goes to the back office to talk to somebody, less than a minute later gets back to the desk and the upgrade disappeared.The Studio Queen is a tight squeeze but we made it work. Im a Marriott Elite Member who came to stay on a Weekend that wasn't busy and not only was lied to about an Upgrade, but was put in a Handicapped Accessible room (206) when the girl at the desk the evening after i checked in said they had plenty of Studios to sell.Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts &amp; Hiltons across the country and if I ever have a question &amp; the answer is NO, i would rather know that its a no the first time and not get the run around. (To the GM, AGM, or whoever keeps track of these, please ensure your Front Desk Staff at lease adds Guest Requests to our Profiles and not just let the go unnoticed)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r360785414-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>360785414</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Very Disappointing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was extremely disappointing. The overall hotel needs to be remodeled. There are signs of wear and Tate all over. The most glaring problem with this hotel are the paper thin walls! I could hear the person in the room over perfectly and she was talking at a normal volume. Also, the internet here was ATROCIOUS. My hotspot gets around 10Mbs, the hotel only got ONE! I called the front desk and was transferred to some IT department who insisted nothing was wrong. I tested the Internet on three different devices, they all received approximately the same results.For being associated with Marriott this hotel sure didn't show it. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r360643615-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>360643615</t>
+  </si>
+  <si>
+    <t>My 101 Day Stay Here</t>
+  </si>
+  <si>
+    <t>Room was very comfortable for one person for a long stay.  Great location! My compliments to several people - Jose at front desk -  very helpful -  always engaging with guests and always making sure the snack bar was stocked.  He is very professional and a problems solver.  Mirna took care of my room most of the time and she went above and beyond.  I will miss Mayra's contagious laughter.  If there was any cons it would be the fact that the walls are so paper thin.  If someone snores you can here it.   If someone is sick with a cough you will hear the coughing all night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r347427122-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>347427122</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Disappointed considering hotel is associated Marriott</t>
+  </si>
+  <si>
+    <t>The air did not work.  We could not get into our room repeatedly because of a malfunctioning card reader. The hotel was responsive but could not fix anything. Actually had to have fan brought into room.For the two bedroom suite we had it was not worth the value.  Next time will stay in two rooms such as LaQinta, Holiday Inn Express or something similar.  For about the same price. There is a certain standard that a person expects when staying at a hotel with Marriott associated with it this hotel did not meet those expected standards.Overall disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>CarterHord, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>The air did not work.  We could not get into our room repeatedly because of a malfunctioning card reader. The hotel was responsive but could not fix anything. Actually had to have fan brought into room.For the two bedroom suite we had it was not worth the value.  Next time will stay in two rooms such as LaQinta, Holiday Inn Express or something similar.  For about the same price. There is a certain standard that a person expects when staying at a hotel with Marriott associated with it this hotel did not meet those expected standards.Overall disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r342332753-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>342332753</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Was a great place to stay! Friendly staff, clean rooms, nice kitchen. The shuttle for the hotel ran during the week and would take you anywhere within 5 miles. Checking in took only a few minutes and checking out was a call from my room the morning of.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r338003760-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>338003760</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok , nothing fancy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked this hotel because it has 2 bedroom suites they don't have 2 bathroom though. that is a draw back.  But all in all, not bad if you get the low price. beds are very noisy probably need to be replaced if you get out of bed in the night you will definitely wake up the other person. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r308673841-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>308673841</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Good location but lacks in many ways!</t>
+  </si>
+  <si>
+    <t>TownePlace Suites is in a great location for many things.  It has eating, shopping and quick access to the major roads.  The two bedroom suites with a living area and kitchenette as quite spacious. The front desk/ lobby area has been updated but the positives end there.  The building we stayed in was run down with several issues.  The a/c in the two bedroom unit didn't work.  The light bulb in the toilet/shower was burnt out as was the bulb over the table.  The beds were the older model Marriott beds and not that comfortable. There was no hot tub and the pool was out of order for the two days that we stayed there. We encountered two different employees at the front desk during our stay.  Neither were particularly receptive to our room issues as we had to ask twice nor were they particularly friendly.  They actually laughed at us when we asked if the pool would be fixed by the second day. The last item that was less than impressive was the mediocre breakfast.  If was as basic as you can get with Fairfield and Springhill Suites offerings generally being much better than what we experienced here.  They were out of almost all fruit and baked goods by the time we reached breakfast and didn't appear to have anyone restocking the items.  As an overall stay, a different location will be tried on our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TownePlace Suites is in a great location for many things.  It has eating, shopping and quick access to the major roads.  The two bedroom suites with a living area and kitchenette as quite spacious. The front desk/ lobby area has been updated but the positives end there.  The building we stayed in was run down with several issues.  The a/c in the two bedroom unit didn't work.  The light bulb in the toilet/shower was burnt out as was the bulb over the table.  The beds were the older model Marriott beds and not that comfortable. There was no hot tub and the pool was out of order for the two days that we stayed there. We encountered two different employees at the front desk during our stay.  Neither were particularly receptive to our room issues as we had to ask twice nor were they particularly friendly.  They actually laughed at us when we asked if the pool would be fixed by the second day. The last item that was less than impressive was the mediocre breakfast.  If was as basic as you can get with Fairfield and Springhill Suites offerings generally being much better than what we experienced here.  They were out of almost all fruit and baked goods by the time we reached breakfast and didn't appear to have anyone restocking the items.  As an overall stay, a different location will be tried on our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r294452917-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>294452917</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>OK kind of a place</t>
+  </si>
+  <si>
+    <t>You've traveled across South Asia, India, Thailand, Sri Lanka, and you land in US.. and you immediately realize..what you miss..there is absolutely no concept of Hospitality...nobody greets you when you enter the hotel, nobody is there to help you with finding your room, helping with luggage.You are shown a map of the property indicating your room and you are good to go.we relocated from India and stayed here for over a month, probably this is what you get when you stay at a "Limited Services" hotel.very limited breakfast, with no possibility to get your choice of eggs (not even boiled eggs) Hope to find something better when I stay next time at a full service Hotel somewhere else in the States.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>You've traveled across South Asia, India, Thailand, Sri Lanka, and you land in US.. and you immediately realize..what you miss..there is absolutely no concept of Hospitality...nobody greets you when you enter the hotel, nobody is there to help you with finding your room, helping with luggage.You are shown a map of the property indicating your room and you are good to go.we relocated from India and stayed here for over a month, probably this is what you get when you stay at a "Limited Services" hotel.very limited breakfast, with no possibility to get your choice of eggs (not even boiled eggs) Hope to find something better when I stay next time at a full service Hotel somewhere else in the States.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r287398247-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>287398247</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Noisy Rooms and Dirty Pool</t>
+  </si>
+  <si>
+    <t>Stayed for over a week at this property.    Location is nice but the rooms are very very noisy. Could not sleep at least 2 or 3 nights.   Can hear every one walking or talking.Pool was so dirty that we could not go in even a single day.   Breakfast is ordinary but convenient.    The front desk people tend to be rude...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for over a week at this property.    Location is nice but the rooms are very very noisy. Could not sleep at least 2 or 3 nights.   Can hear every one walking or talking.Pool was so dirty that we could not go in even a single day.   Breakfast is ordinary but convenient.    The front desk people tend to be rude...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r280777762-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>280777762</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This one is a nice, clean and quiet hotel. Warm and quick welcome, modern rooms with enough and well maintained gadgets. Furniture was very functional and the bed was perfect. The hot buffet breakfast was an American classic. It is not too far from downtown and close to Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>This one is a nice, clean and quiet hotel. Warm and quick welcome, modern rooms with enough and well maintained gadgets. Furniture was very functional and the bed was perfect. The hot buffet breakfast was an American classic. It is not too far from downtown and close to Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r273005180-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>273005180</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad customer service </t>
+  </si>
+  <si>
+    <t>I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most...I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most likely hear your neighbors. On the day of checkout the elevators were not in service which was due to a very bad storm in the middle of the night. I took the stairs down from the third floor which wasn't bad except the pool had over flowed and water was inside. The carpet was soaking wet on the first floor by the stairs and exit door. I would most likely not stay here again due to how I was treated by the women at the front desk. To me customer service is everything and this hotel does not have it. MoreShow less</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most...I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most likely hear your neighbors. On the day of checkout the elevators were not in service which was due to a very bad storm in the middle of the night. I took the stairs down from the third floor which wasn't bad except the pool had over flowed and water was inside. The carpet was soaking wet on the first floor by the stairs and exit door. I would most likely not stay here again due to how I was treated by the women at the front desk. To me customer service is everything and this hotel does not have it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r269347540-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>269347540</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Noisy/Thin Walls</t>
+  </si>
+  <si>
+    <t>This was my first time staying at a TownePlace Suites property and I don't plan to again. As a Marriott platinum member this was one of noisiest hotels I've stayed at. You can hear the people talk in the room next you, or watching TV. I even woke up in the middle of the night and heard the guy snoring next to me! The air conditioning is pretty mediocre and will turn off for 45 minute periods which would make the room uncomfortably warm in the night. This hotel made a Residence Inn seem like an upscale chain. MoreShow less</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>This was my first time staying at a TownePlace Suites property and I don't plan to again. As a Marriott platinum member this was one of noisiest hotels I've stayed at. You can hear the people talk in the room next you, or watching TV. I even woke up in the middle of the night and heard the guy snoring next to me! The air conditioning is pretty mediocre and will turn off for 45 minute periods which would make the room uncomfortably warm in the night. This hotel made a Residence Inn seem like an upscale chain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r263159918-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>263159918</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Roomy but little noisy.</t>
+  </si>
+  <si>
+    <t>The two bedroom suites are nice and clean.  The rooms are spacious and have closets and drawers, flag screen tvs in each, and comfortable beds.  The living room area has a flat screen tv, love seat, and chair with an ottoman. Their is also an eat in table for 3 and a nice kitchenette stocked with dishes and a coffee maker.  The bathroom has a shower and tub and toilet that closes off from the sink, which is nice for a family to have privacy.  The only complaint I have is that the walls and ceiling are very thin. It sounded like elephants walking upstairs most of the night.  I'm a hard sleeper, but it was a little frustrating while watching TV to hear the booming shuffle across the ceiling.  Breakfast was good and free. They have oatmeal, eggs, potatoes, sausage, cereals, bagels, muffins,apples, and much more. It was a nice stay overall. Las colinas is a very nice and safe area, and there are several restaurants around of all different kinds.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The two bedroom suites are nice and clean.  The rooms are spacious and have closets and drawers, flag screen tvs in each, and comfortable beds.  The living room area has a flat screen tv, love seat, and chair with an ottoman. Their is also an eat in table for 3 and a nice kitchenette stocked with dishes and a coffee maker.  The bathroom has a shower and tub and toilet that closes off from the sink, which is nice for a family to have privacy.  The only complaint I have is that the walls and ceiling are very thin. It sounded like elephants walking upstairs most of the night.  I'm a hard sleeper, but it was a little frustrating while watching TV to hear the booming shuffle across the ceiling.  Breakfast was good and free. They have oatmeal, eggs, potatoes, sausage, cereals, bagels, muffins,apples, and much more. It was a nice stay overall. Las colinas is a very nice and safe area, and there are several restaurants around of all different kinds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r263141919-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>263141919</t>
+  </si>
+  <si>
+    <t>Terrific choice</t>
+  </si>
+  <si>
+    <t>I had a conference at the Omni, which is way too expensive. This was just a couple of miles away, for less than half the price, and it was terrific. Quiet location, near the freeway, very nice rooms, decent breakfast, and very professionally run. I was very happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>I had a conference at the Omni, which is way too expensive. This was just a couple of miles away, for less than half the price, and it was terrific. Quiet location, near the freeway, very nice rooms, decent breakfast, and very professionally run. I was very happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r261911164-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>261911164</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Pleasant staff and good service</t>
+  </si>
+  <si>
+    <t>I stayed here due to my company, but was happy with the service.  A sink malfunction was dealt with quickly by a courteous young man.  The breakfast bar had a wide selection, eggs, sausage, waffles, oatmeal, cereal, toast, bagels, muffins.  It would be difficult to not find anything one might want for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here due to my company, but was happy with the service.  A sink malfunction was dealt with quickly by a courteous young man.  The breakfast bar had a wide selection, eggs, sausage, waffles, oatmeal, cereal, toast, bagels, muffins.  It would be difficult to not find anything one might want for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r258298342-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>258298342</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Great business stay</t>
+  </si>
+  <si>
+    <t>These suites are not the Four Seasons, so don't expect opulence.  However, it is perfect for a busy business stay, particularly for the price.  The staff was exceedingly friendly and accomodating from check-in through check-out.  It was great having a free local shuttle (which I used twice).My room was clean and had a kitchenette.  I didn't use the kitchen except to make coffee, but it's always good to have the option.  The desk has a set of overhead shelves/cubbies.  I know it's strange to note that, but too many perfunctory desks in most other hotels don't provide enough space to do real work, and I end up with papers spread over the bed.  Wi-Fi is free.  The gym is very small (three cardio machines and free weights), but functional.  A free breakfast buffet is provided, and offers much more than a "continental breakfast."  There is a steam tray with eggs and sausages, muffins, yogurt, oatmeal and make-your-own waffles.  A decent cuppa joe as well.My only quibbles were somewhat thin walls (I could hear talking, but not the speech itself) and cable tv which would drop the signal (it may have been the bad weather when I was there).  Otherwise, a great experience and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>These suites are not the Four Seasons, so don't expect opulence.  However, it is perfect for a busy business stay, particularly for the price.  The staff was exceedingly friendly and accomodating from check-in through check-out.  It was great having a free local shuttle (which I used twice).My room was clean and had a kitchenette.  I didn't use the kitchen except to make coffee, but it's always good to have the option.  The desk has a set of overhead shelves/cubbies.  I know it's strange to note that, but too many perfunctory desks in most other hotels don't provide enough space to do real work, and I end up with papers spread over the bed.  Wi-Fi is free.  The gym is very small (three cardio machines and free weights), but functional.  A free breakfast buffet is provided, and offers much more than a "continental breakfast."  There is a steam tray with eggs and sausages, muffins, yogurt, oatmeal and make-your-own waffles.  A decent cuppa joe as well.My only quibbles were somewhat thin walls (I could hear talking, but not the speech itself) and cable tv which would drop the signal (it may have been the bad weather when I was there).  Otherwise, a great experience and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r256062786-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>256062786</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Harley Stay Over</t>
+  </si>
+  <si>
+    <t>After travelling from Pensacola, Florida it was nice to rest for a few days before heading off to Memphis.  I got to tell you that the Dallas Downtown traffic is a knuckle ride and with rain threatening I was thankful to arrive safely. The staff was very friendly and helpful and the rooms were nice hence I was able to get a great rest here!  A HUGE thank you goes out to Lauryn Martin who looked after me and gave me great directions.  I can't thank you enough!  I will most definitely stay here again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r254772220-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>254772220</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Not the best place to stay</t>
+  </si>
+  <si>
+    <t>The people who designed this room have never stayed in a hotel.  I'm not a designer by any stretch but I could have done a much better job.  If you want to watch TV you have to sit on the couch or lay on your right side on the bed.  Just a terrible design.  I really don't get it.  I travel a fair amount and for a newly remodeled room it's just not good. There are no outlets on the night stand and there's only one nightstand, so if you want to plug your phone in you have to unplug the light or the clock.   No one does that today if the room has been refreshed. The bed is adequate, the A/C is quiet. There are no drawers for clothing just a closet with baskets and an advertisement for a closet shelf system which is code for we wanted to remodel very cheaply so we got sponsors to help defray the costs. I spoke with other associates and their rooms are similar.  I wouldn't stay here again.  If you don't care enough to make the room comfortable and workable then don't expect repeat customers. MoreShow less</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded February 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2015</t>
+  </si>
+  <si>
+    <t>The people who designed this room have never stayed in a hotel.  I'm not a designer by any stretch but I could have done a much better job.  If you want to watch TV you have to sit on the couch or lay on your right side on the bed.  Just a terrible design.  I really don't get it.  I travel a fair amount and for a newly remodeled room it's just not good. There are no outlets on the night stand and there's only one nightstand, so if you want to plug your phone in you have to unplug the light or the clock.   No one does that today if the room has been refreshed. The bed is adequate, the A/C is quiet. There are no drawers for clothing just a closet with baskets and an advertisement for a closet shelf system which is code for we wanted to remodel very cheaply so we got sponsors to help defray the costs. I spoke with other associates and their rooms are similar.  I wouldn't stay here again.  If you don't care enough to make the room comfortable and workable then don't expect repeat customers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r238127697-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>238127697</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>paper thin walls but otherwise good stay</t>
+  </si>
+  <si>
+    <t>My room was clean and modern.  Nothing to complain about furnishings or cleanliness.  But walls were very thin and I can hear conversations next door way too clearly.  I was woken up 6am in the morning everyday because a guy next door was having a phone conversation.  I am guessing it is an oversea conference call or something.  At one time, I even heard a lady next door stirring a spoon in her coffee mug(?), not to mention her convesration with her husband on a phone.  I did not hear much from upstairs but I know someone was there.  So the ceiling/floor must have better soundproofing than walls.  For some privacy, I suggest turning kitchen fan and bathroom fan on.  Of course, one can always go outside.  Other than thin-wall issue, hotel was a good value for the price.  I would stay here again if I did not have other options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>My room was clean and modern.  Nothing to complain about furnishings or cleanliness.  But walls were very thin and I can hear conversations next door way too clearly.  I was woken up 6am in the morning everyday because a guy next door was having a phone conversation.  I am guessing it is an oversea conference call or something.  At one time, I even heard a lady next door stirring a spoon in her coffee mug(?), not to mention her convesration with her husband on a phone.  I did not hear much from upstairs but I know someone was there.  So the ceiling/floor must have better soundproofing than walls.  For some privacy, I suggest turning kitchen fan and bathroom fan on.  Of course, one can always go outside.  Other than thin-wall issue, hotel was a good value for the price.  I would stay here again if I did not have other options in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r236452968-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>236452968</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>solid stay</t>
+  </si>
+  <si>
+    <t>ProsHotel recently renovatedNice pool and outdoor lounge area in the back with a fire pit, etcFriendly serviceQuietComfortable roomConvenient to DFWBreakfast included - things like muffins, eggs, fruit, cereal, etcConsCan hear occasional airplane noise, but not terribleWe came back at 4pm, and our room was not serviced. We had to get ready for a wedding and left around 6 and asked our room be done on the way out. It never was.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r235405760-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>235405760</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed in a two bedroom suite.  Hotel appears to have been renovated recently.  The furnishings were great.  Had plenty of room with a dining room table, couch, and armchair.  Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TowneplaceGMLas, General Manager at TownePlace Suites Dallas Las Colinas, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Stayed in a two bedroom suite.  Hotel appears to have been renovated recently.  The furnishings were great.  Had plenty of room with a dining room table, couch, and armchair.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r233178643-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>233178643</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Great Family Getaway</t>
+  </si>
+  <si>
+    <t>This has become our favorite hotel when traveling with the kiddos. Great accommodations. Convenient to most everything. Nice homely setup, plenty of room for us to move about, meal saver, everyone sleeps comfortably.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1979,3783 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>176</v>
+      </c>
+      <c r="X20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
+      </c>
+      <c r="X21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>176</v>
+      </c>
+      <c r="X22" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>203</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>195</v>
+      </c>
+      <c r="X24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>240</v>
+      </c>
+      <c r="X29" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>248</v>
+      </c>
+      <c r="X30" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>248</v>
+      </c>
+      <c r="X31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>203</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>289</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" t="s">
+        <v>314</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>298</v>
+      </c>
+      <c r="O38" t="s">
+        <v>203</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J40" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L40" t="s">
+        <v>328</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" t="s">
+        <v>203</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>331</v>
+      </c>
+      <c r="J41" t="s">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>337</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>339</v>
+      </c>
+      <c r="K42" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" t="s">
+        <v>339</v>
+      </c>
+      <c r="K43" t="s">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>342</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>362</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K46" t="s">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s">
+        <v>366</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" t="s">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>372</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s">
+        <v>378</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" t="s">
+        <v>385</v>
+      </c>
+      <c r="K49" t="s">
+        <v>386</v>
+      </c>
+      <c r="L49" t="s">
+        <v>387</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>388</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>389</v>
+      </c>
+      <c r="X49" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>392</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>401</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>402</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s">
+        <v>405</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>397</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>406</v>
+      </c>
+      <c r="X51" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>414</v>
+      </c>
+      <c r="X52" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>421</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>422</v>
+      </c>
+      <c r="O53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>419</v>
+      </c>
+      <c r="K54" t="s">
+        <v>426</v>
+      </c>
+      <c r="L54" t="s">
+        <v>427</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>422</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>428</v>
+      </c>
+      <c r="X54" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>431</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>432</v>
+      </c>
+      <c r="J55" t="s">
+        <v>433</v>
+      </c>
+      <c r="K55" t="s">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s">
+        <v>435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>422</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>428</v>
+      </c>
+      <c r="X55" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>379</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>454</v>
+      </c>
+      <c r="X58" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>457</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>458</v>
+      </c>
+      <c r="J59" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" t="s">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s">
+        <v>461</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>462</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>463</v>
+      </c>
+      <c r="X59" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>466</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>467</v>
+      </c>
+      <c r="J60" t="s">
+        <v>468</v>
+      </c>
+      <c r="K60" t="s">
+        <v>469</v>
+      </c>
+      <c r="L60" t="s">
+        <v>470</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>462</v>
+      </c>
+      <c r="O60" t="s">
+        <v>203</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>462</v>
+      </c>
+      <c r="O61" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>476</v>
+      </c>
+      <c r="X61" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37136</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_761.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_761.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="546">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tresi H</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>yahoshaphat I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r579337900-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>aabryelle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r576730209-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>KWLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572674791-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>This was a nice, clean hotel in a convenient location.  I only stayed 1 night encountered to a conference, but I had zero complaints.  Restaurants and shopping were near by.  Easy drive from airport.  Good breakfast.More</t>
   </si>
   <si>
+    <t>psconst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572451159-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>could not ask for any better stay From Breakfast to the outside grill. Front desk staff will go out of your way to make stay enjoyable. need wine bottle opener and Kristen went out and brought one at CVS across the streetMore</t>
   </si>
   <si>
+    <t>txchef320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r572265016-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>My team and I were in from out of town opening a new location and needed a few extra rooms for some teammates we had coming in from out of town. After searching all over Irving for a hotel room while a large convention is going on and Texas Motor Speedway is sold out, she was able to make a couple rooms happen for us at the hotel so our entire team could be together. Love the hotel and love Paola’s customer service!!!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571962851-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Kristen was amazing. She should be managing her own hotel. She made a bad situation amazing...that's how you add customer value and get repeat clients. Great room..good breakfast and it was clean and fresh. It was wunderbar!! The only super annoying thing was continual phone calls for us to check out. We checked in at 2am...at least give us an extra hour to leave knocks..phone calls do not help..but of course Kristen was gone so another young woman was at the desk. Other than that hiccup, great stay. We will be back.</t>
   </si>
   <si>
+    <t>Angela C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571810187-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>The place was nice for what it is. Kristen at front desk was beyond lovely-even walked us to our room. Only issue-the smell-I do not know if it was the carpeting or some mold but it was terrible and everywhere. Very thankful we were here for only 1 night.More</t>
   </si>
   <si>
+    <t>tmhsigns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r571790069-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>As someone who works in hospitals myself I was very pleased with the pleasant welcome from Jarred the Front Desk Manager, I think silent check ins are awkward but he made great small talk! The property is nice and the room was great! I work in hotels so of course I look at those key indicators of bathroom counters, bed making, closet and trash cans! All perfect! The toilet had a little issues flushing or the knob would stick but wasn’t the worst thing that has occurred. The business center computer kept restarting when trying to check my email, so that was frustrating but eventually I got what I needed. I love love love the hot coffee at all times! Breakfast was great as expected, and my stay over housekeeping service was perfect! They even washed my personal travel mugs I brought with me so that was touching!I’d definitely return and recommend!More</t>
   </si>
   <si>
+    <t>calliegirl13141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569795169-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>LaDeidre T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569511700-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>I travel to DFW area often and this was my first stay at the hotel. I must say I am very satisfied!! The rooms are spacious and very comfy. Staff are very friendly.. Made sure I had what I needed.......</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r569341366-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>Great Friendly Caring crew. From the 1st phone call to check in early. From the check out. Always made sure we had what we needed. The General Manager. Grady Seim came up to check us in. Let us know since they are remodeling the gym. We were allowed to use the one next door. Let us know when dinner was and as well what time to come up for Breakfast. Kristen at the front desk was friendly and had a welcoming smile on her face the whole experience. Would love to have her at my location. I will come back here to stay for now on. Cant feel more welcomed from the whole crew then walking thru that sliding glass door. More</t>
   </si>
   <si>
+    <t>markbailey444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r560076195-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>I often work in the DFW area and have stayed at a group of hotels in the Irving area.  The one that I have stayed at the most if the TownePlace Suites by Marriott.First of all, you need to know this is the lower end of the Marriott chain and is more like an extended stay.  The rooms have kitchenettes with a fridge, stove, and microwave.  While this hotel is on the lower end, the staff has been tremendous.  They call me by name when I get there, when I leave, and when they see me during the week.  If I ever have any issues or special requests, they take care of it for me.The hotel is close enough to walk to a few fast food places, and if using a car, close to some good sit downs too.For the money, this is a good value.More</t>
   </si>
   <si>
+    <t>The_Hotel_Official</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r556224111-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>Stayed here when traveling to compare to other close range extended stay hotels, room was fine, but had quite a few cleanliness issues. Around the property, there’s a few things they haven’t kept up with. This specific property has a few things other TownePlaces don’t, such as an outdoor basketball court (though the backboard sags a bit), they also have an evening reception, although the food is almost always terrible and only lemonade for a non-alcoholic beverage choice, but I guess they’re not required to do it, so.. Breakfast is fine, has pretty extensive offerings.Overall not too bad of a property, would returnMore</t>
   </si>
   <si>
+    <t>js151515</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r555065169-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>Thoroughly enjoyed my stay. Kristen was friendly at check-in, she explained all the amenities and made good conversation. Thanks for keeping me in the same building so I didn’t have to re-park my car. Also liked the welcome bag for platinum members. Redeemed points for this stay and got a great deal (Category 1). The hotel is older but well maintained and clean. Being a Towneplace, room was obviously large. Though I only stayed one night, I’d definitely be comfortable staying long term. Free breakfast, parking, and WiFi were all nice. My favorite part by far is the hotel market is stocked with tons of Blue Bell!! Wish I had the chance to get some. I would definitely return to this place. Highly recommended.More</t>
   </si>
   <si>
+    <t>Kajyah R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r537875462-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>Beautiful service and staffing. Felt like I was at the ritz Carlton. Shout outs to them too btw. But my stay here was magical. By me staying here it opened up new opportunity in my life. Thank you Paola for being you. - GODMore</t>
   </si>
   <si>
+    <t>Mahantesh P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r536282456-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Gale A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r530174288-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>I had a lovely 2 bedroom in this hotel. The service was good and the breakfast was also good. The manager was very friendly to us. He held our luggage for us until we left for our return flight home. I would stay there every time that I return to Dallas.More</t>
   </si>
   <si>
+    <t>Tony9876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504525453-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>I stayed here to be close to the airport for an early morning flight, and it was a good stay. I hope they will remain a Category 1 Marriott Rewards property, since there are so few of those these days. They do have a shuttle to take you to places within 5 miles of the hotel, but NOT to the airport. It seems a 'little off the beaten path' but my room was clean and the bed was comfortable. I would stay here again, as long a they stay Category 1.More</t>
   </si>
   <si>
+    <t>traveltoomuch2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504347990-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>Well kept with a nice pool and basketball court.  There was variety with the hot breakfast each day.  For the price, this was a great hotel.  Location to the airport and surrounding restaurants and businesses was great.More</t>
   </si>
   <si>
+    <t>garrettyentes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r504199702-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>I stayed at this property for work last week and enjoyed the stay! The staff members are kind and very helpful. Check-in was a breeze. Great breakfast options and the room was clean and set up and described in the description. Will stay again.More</t>
   </si>
   <si>
+    <t>Srinivas J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503856652-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t>I stayed here for a couple of days in July 2017. The place was spacious, had awesome breakfast options, The social evenings were awesome as well. My only gripe, because of which I'm reducing 1 star is the slow complimentary internet. But they do have a paid option if it floats your boat. Otherwise a really good experience.-Srinivas.More</t>
   </si>
   <si>
+    <t>SeanP43119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503338556-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -633,6 +702,9 @@
     <t>From the moment we arrived the staff went above and beyond to make us feel welcome.  The 'light dinner' was more than a snack, more like a full meal.  Staff remembered our name the entire stay which does not happen at your typical hotel.More</t>
   </si>
   <si>
+    <t>Sean V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r503012146-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>They surprised me with free dinner monday-wednesday to go along with the already free breakfast! Awesome customer service from Paola at the front desk upon check in.  Thanks Townplace, i'll be back next time!More</t>
   </si>
   <si>
+    <t>Allie_A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r490518567-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -678,6 +753,9 @@
     <t>I stayed here for one evening in June 2017 after flying down to Texas for a graduation.  I only wanted to find a reasonably priced, decent hotel close to Love Field, but this place was a pleasant surprise.The front desk staff was extraordinarily friendly and helpful, and the room was clean and spacious (we had a two-bedroom suite).  The hotel was within a block of several restaurants and it was nice to have several options without having to get into the car. The front desk was very helpful in suggesting nearby places to eat.I also commend the hotel that the internet speed was acceptable and usable at 5Mps as Marriott chain hotels are notorious for having dreadfully slow internet speeds. They did offer the "upgrade" if you paid more, but it was nice that it wasn't necessary.  I even streamed a soccer game perfectly on my laptop while there.This hotel gave me a very positive impression of TownPlace Suites and should be a model for this type of hotel on how to do it right!More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r487453377-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -699,6 +777,9 @@
     <t>We stayed here for the Byron Nelson golf tournament. We had 3 couples and we're trying to stay as cheap as possible. This hotel has a 2 bedroom suite with a pullout couch. The room was huge, 2 beds were in their own separate rooms with doors and closets. The pullout couch wasn't that great, but it got the job done! The room had a full kitchen with a fridge, dishwasher, microwave, and even an oven. It even had plates and silverware! Overall this was a great hotel, there was only one downside. The hotel has a shuttle service, but it doesn't run on the weekends, but other than that, it's a great hotel and located close to places to eat.More</t>
   </si>
   <si>
+    <t>Biju R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r473490057-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>We stayed here for about 20 days. The main reason we stayed here was location. This was very close to my office and also close to a place i was searching for a house i wanted to move in. Stay was pleasant and nice. The reason i am writing this review is for a specific reason. Last day when i was checking out, in haste i dropped my wallet in the room. I went back to my new home and went busy setting up things and also i was busy taking care of the work.At the evening i was checking for my wallet i could not find it. i Called all the place i went and nobody could find the wallet. Then i called the hotel, staff was very helpful she herself went in the room ( room was still empty) and search for the wallet, but she could not find it there. Then she called the maintenance lady and then called me back saying they found the wallet and kept in a safe locker. I was so surprised, and not expecting it.. i had everything in the wallet including my credit cards and cash.. The maintenance lady was so nice to us even the other days.. i am very thankful to the lady and also the other staff help me to find the wallet.More</t>
   </si>
   <si>
+    <t>VIEQUESBEACHBUM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r465197873-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -745,6 +829,9 @@
   </si>
   <si>
     <t>nothing fancy here, basic in room features and the typical lower market treatment.  i was a good price and clean, so no major complaints, not just tops in this market.  The location is right in Las Colinas, close to everything, so if you are on a budget and can get a good rate you can't go wrong.  There is a small sofa sleeper in the main room if neededMore</t>
+  </si>
+  <si>
+    <t>cwa8807</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r462835823-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -775,6 +862,9 @@
 Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts...After a careful selection of Hotels in the area I booked this hotel. For 99 a night, I couldn't find a hotel that had a separated living area and a kitchenette inside the room. So like most of my reviews I  have a pro and cons section. Pro's- The Hotel sits in a major area that is easy access to most anything you want and the area is very nice and seems to be a low crime area. The parking was very easy and not hard to find a spot even when the Hotel seemed full. Check in was fast and the lady at the desk was very nice and helpful. I used the Marriott application on my smart phone for the first time and made some room request all of which were finished way before i reached the Hotel. The room was very clean and well laid out. The pull out bed in the living room was a nice feature. The tv's worked very well and the kitchen was well stocked. The bed in the room was super soft and comfy. The breakfast that is provided is one of the best I have ever had while staying at a Hotel and far exceeded my expectations.  Cons- When I got to the room I attempted to call down to the front desk. Both room phones would call out but the i could not hear the front desk. After numerous attempts to reach the staff at the front desk a clerk came to our door. She was very rude and told me" you hung up on me" after i told her the phone did not work.It took until the next morning for  maintenance to fix the issue. The clerk i stated about above later on was very nice and i had no other issues with her. The room does not match the layout as provided by the website and this needs to be addressed for the future. The property is in need of a much needed update all the way around and is showing its age. In all I would give this hotel 4 out of 5 stars and would stay here again.More</t>
   </si>
   <si>
+    <t>Nancy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r462520014-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -793,6 +883,9 @@
     <t>Stayed here 2 nights to have easy access to freeways and be in a quiet location.  The hotel is older &amp; could stand a remodel, but it's clean and doesn't smell!  The staff is friendly and professional from the front desk personnel, housekeeping, grounds and dining room staff.Breakfast was a pleasant surprise.  All made onsite, not frozen and reheated.  We stayed in a room with 2 bedrooms with queen beds.  There is a fully furnished kitchen, which was nice for snacks and reheating leftovers from dinner the night before.More</t>
   </si>
   <si>
+    <t>Meggiebo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r458743271-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -820,6 +913,9 @@
     <t>I stay here a lot. I love to stay this hotel because they make you like you are at your own home. I will continue to stay there. I wish they will still offer marriot points w money.  There breakfast is so nice. More</t>
   </si>
   <si>
+    <t>cookiep936</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r458138718-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -847,6 +943,9 @@
     <t>I felt safe and I appreciated all the personnel that I came in contact with.  Great place to stay. Great location with several business around us and great amenities. I enjoyed breakfast every morning and dinner twice a week.  The laundry room was big and available when needed. More</t>
   </si>
   <si>
+    <t>Shahnawaz K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r457876666-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -874,6 +973,9 @@
     <t>We had a pleasant stay. The staff is friendly and always willing to help. The hotel is closed to the market and you can get all the necessary items. Its an accessible location with a peaceful environment.More</t>
   </si>
   <si>
+    <t>Mea37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r420899039-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1003,9 @@
     <t>Great hotel for a quick in and out business trip. The staff was friendly, my room was large and comfortable with a great Air conditioning unit. The beds weren't anything special but I slept well and you can't beat the location as it's close to restaurants and close to the airport. I wouldn't hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>Ceilidhe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r408987803-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1033,9 @@
     <t>I spent a week at this hotel when in town on business. I had a nice room on the ground floor with a kitchen equipped with the basics. The hotel has a better than average continental breakfast buffet which was appreciated! I used the outdoor pool at the hotel as it was extremely hot the week I was there. The pool was very clean and well maintained. The room however, was hit and miss as far as cleaning. One day no one came at all. I complained the following day because it was near the end of the day and still the room had not been touched. The person at the desk said they would send someone shortly and a couple of hours later they came and cleaned the room.More</t>
   </si>
   <si>
+    <t>nijc77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r398654160-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1060,9 @@
     <t>Just a gross feeling walking around. Everything is sticky and the air is damp.  I'm not sure I'll consider this place again and I travel every week and stay at Marriott chains most of the time. This place's front desk and lobby was darkish too. A little bright would be nice.  More</t>
   </si>
   <si>
+    <t>Amit M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r389234085-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1078,9 @@
     <t>Friendly staff, nice pool, quite surrounding, good nearby restaurants, well built fitness center, clean rooms. Felt like Home.Breakfast was more detailed and always in abundance. Staff was very friendly and helpful.</t>
   </si>
   <si>
+    <t>thocott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r386234431-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1108,9 @@
     <t>The hotel was clean and we didn't have any problems with noise.  Breakfast was ok, nothing great on our first day so we all skipped it on our second day.  We had a 2 bedroom suite and one of the main reason's I chose the TownePlace Suites over other hotels was because it advertised a Queen bed in each bedroom.  However,  the rooms really only had full size beds so it didn't work out so great for us.  Their website and my reservation both say "2 Bedroom Suite, Bedroom 1: 1 Queen, Bedroom 2: 1 Queen, Sofa bed, Bathrooms: 1"If I had known it was just full size beds I never would have booked this hotel.More</t>
   </si>
   <si>
+    <t>FeliciaC505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r378670862-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1127,9 @@
   </si>
   <si>
     <t>May 2016</t>
+  </si>
+  <si>
+    <t>Deon G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r363178290-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1037,6 +1157,9 @@
 Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts...I stayed on Points this past weekend. I asked 5 Days in advance for an upgrade because on Marriott's Website it wasn't available for Points but it was available for Purchase. What concerns me is that I felt the Front Desk staff was inconsistent in providing an answer for me. 5 Days in advance, a Night Auditor told me only the GM could give upgrades. Very Odd but I said ok, I may have interrupted his nap time at 1AM. Girl at the Desk 2 Days before I checked in said that I would have to see the Day of. The Day of, the Girl at the Desk says that they have an upgrade available, goes to the back office to talk to somebody, less than a minute later gets back to the desk and the upgrade disappeared.The Studio Queen is a tight squeeze but we made it work. Im a Marriott Elite Member who came to stay on a Weekend that wasn't busy and not only was lied to about an Upgrade, but was put in a Handicapped Accessible room (206) when the girl at the desk the evening after i checked in said they had plenty of Studios to sell.Breakfast was normal, the place was clean, what you would expect from TownePlace. It just really not a good look that when I asked the same question 4 times i got the run around. Stayed at Marriotts &amp; Hiltons across the country and if I ever have a question &amp; the answer is NO, i would rather know that its a no the first time and not get the run around. (To the GM, AGM, or whoever keeps track of these, please ensure your Front Desk Staff at lease adds Guest Requests to our Profiles and not just let the go unnoticed)More</t>
   </si>
   <si>
+    <t>Chris H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r360785414-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1178,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>susyqno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r360643615-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1193,9 @@
     <t>Room was very comfortable for one person for a long stay.  Great location! My compliments to several people - Jose at front desk -  very helpful -  always engaging with guests and always making sure the snack bar was stocked.  He is very professional and a problems solver.  Mirna took care of my room most of the time and she went above and beyond.  I will miss Mayra's contagious laughter.  If there was any cons it would be the fact that the walls are so paper thin.  If someone snores you can here it.   If someone is sick with a cough you will hear the coughing all night.</t>
   </si>
   <si>
+    <t>Denise E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r347427122-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1223,9 @@
     <t>The air did not work.  We could not get into our room repeatedly because of a malfunctioning card reader. The hotel was responsive but could not fix anything. Actually had to have fan brought into room.For the two bedroom suite we had it was not worth the value.  Next time will stay in two rooms such as LaQinta, Holiday Inn Express or something similar.  For about the same price. There is a certain standard that a person expects when staying at a hotel with Marriott associated with it this hotel did not meet those expected standards.Overall disappointment.More</t>
   </si>
   <si>
+    <t>athenascott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r342332753-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1244,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>jatgo123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r338003760-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1262,9 @@
     <t xml:space="preserve">We booked this hotel because it has 2 bedroom suites they don't have 2 bathroom though. that is a draw back.  But all in all, not bad if you get the low price. beds are very noisy probably need to be replaced if you get out of bed in the night you will definitely wake up the other person. </t>
   </si>
   <si>
+    <t>traveltime92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r308673841-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1286,9 @@
     <t>TownePlace Suites is in a great location for many things.  It has eating, shopping and quick access to the major roads.  The two bedroom suites with a living area and kitchenette as quite spacious. The front desk/ lobby area has been updated but the positives end there.  The building we stayed in was run down with several issues.  The a/c in the two bedroom unit didn't work.  The light bulb in the toilet/shower was burnt out as was the bulb over the table.  The beds were the older model Marriott beds and not that comfortable. There was no hot tub and the pool was out of order for the two days that we stayed there. We encountered two different employees at the front desk during our stay.  Neither were particularly receptive to our room issues as we had to ask twice nor were they particularly friendly.  They actually laughed at us when we asked if the pool would be fixed by the second day. The last item that was less than impressive was the mediocre breakfast.  If was as basic as you can get with Fairfield and Springhill Suites offerings generally being much better than what we experienced here.  They were out of almost all fruit and baked goods by the time we reached breakfast and didn't appear to have anyone restocking the items.  As an overall stay, a different location will be tried on our next visit.More</t>
   </si>
   <si>
+    <t>Rajesh75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r294452917-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1316,9 @@
     <t>You've traveled across South Asia, India, Thailand, Sri Lanka, and you land in US.. and you immediately realize..what you miss..there is absolutely no concept of Hospitality...nobody greets you when you enter the hotel, nobody is there to help you with finding your room, helping with luggage.You are shown a map of the property indicating your room and you are good to go.we relocated from India and stayed here for over a month, probably this is what you get when you stay at a "Limited Services" hotel.very limited breakfast, with no possibility to get your choice of eggs (not even boiled eggs) Hope to find something better when I stay next time at a full service Hotel somewhere else in the States.More</t>
   </si>
   <si>
+    <t>Amit_55551</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r287398247-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1346,9 @@
     <t>Stayed for over a week at this property.    Location is nice but the rooms are very very noisy. Could not sleep at least 2 or 3 nights.   Can hear every one walking or talking.Pool was so dirty that we could not go in even a single day.   Breakfast is ordinary but convenient.    The front desk people tend to be rude...More</t>
   </si>
   <si>
+    <t>travelguru-su</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r280777762-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1376,9 @@
     <t>This one is a nice, clean and quiet hotel. Warm and quick welcome, modern rooms with enough and well maintained gadgets. Furniture was very functional and the bed was perfect. The hot buffet breakfast was an American classic. It is not too far from downtown and close to Airport.More</t>
   </si>
   <si>
+    <t>Xtina0920</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r273005180-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1253,6 +1403,9 @@
     <t>I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most...I just stayed here from may 16 to 17. I booked this hotel only because I got a very good corporate discount from my job. I checked in on Saturday around 2:40 pm and was not very welcomed. The woman at the front desk was very rude and I don't remember her name but she had long dark hair and might of been Indian. The woman was very upset I did not bring my job ID or corporate card to verify my employment to prove I was entitled to the corporate rate. I finally logged in my job account and showed her proof. The whole time this went one she kept treating me as if she didn't want me to stay there. She treated me as if I was lying even though I did show her proof. After giving me the key she did not inform me on how to get to my room, the check out time, or the breakfast hours. I got the feeling from her that she just wanted me to leave. Once getting to the room I did like how clean it was. Although the bed squeaked a lot and there were only mirrors in the bathroom. So if you are a person who likes to get ready in the room instead of bathroom just be aware there are no mirrors out there. Also be aware the walls are very thin here so u will most likely hear your neighbors. On the day of checkout the elevators were not in service which was due to a very bad storm in the middle of the night. I took the stairs down from the third floor which wasn't bad except the pool had over flowed and water was inside. The carpet was soaking wet on the first floor by the stairs and exit door. I would most likely not stay here again due to how I was treated by the women at the front desk. To me customer service is everything and this hotel does not have it. More</t>
   </si>
   <si>
+    <t>JHake10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r269347540-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1430,9 @@
     <t>This was my first time staying at a TownePlace Suites property and I don't plan to again. As a Marriott platinum member this was one of noisiest hotels I've stayed at. You can hear the people talk in the room next you, or watching TV. I even woke up in the middle of the night and heard the guy snoring next to me! The air conditioning is pretty mediocre and will turn off for 45 minute periods which would make the room uncomfortably warm in the night. This hotel made a Residence Inn seem like an upscale chain. More</t>
   </si>
   <si>
+    <t>Leeann B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r263159918-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1298,6 +1454,9 @@
     <t>The two bedroom suites are nice and clean.  The rooms are spacious and have closets and drawers, flag screen tvs in each, and comfortable beds.  The living room area has a flat screen tv, love seat, and chair with an ottoman. Their is also an eat in table for 3 and a nice kitchenette stocked with dishes and a coffee maker.  The bathroom has a shower and tub and toilet that closes off from the sink, which is nice for a family to have privacy.  The only complaint I have is that the walls and ceiling are very thin. It sounded like elephants walking upstairs most of the night.  I'm a hard sleeper, but it was a little frustrating while watching TV to hear the booming shuffle across the ceiling.  Breakfast was good and free. They have oatmeal, eggs, potatoes, sausage, cereals, bagels, muffins,apples, and much more. It was a nice stay overall. Las colinas is a very nice and safe area, and there are several restaurants around of all different kinds.More</t>
   </si>
   <si>
+    <t>HouMSW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r263141919-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1319,6 +1478,9 @@
     <t>I had a conference at the Omni, which is way too expensive. This was just a couple of miles away, for less than half the price, and it was terrific. Quiet location, near the freeway, very nice rooms, decent breakfast, and very professionally run. I was very happy with my stay.More</t>
   </si>
   <si>
+    <t>Sandy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r261911164-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1337,6 +1499,9 @@
     <t>I stayed here due to my company, but was happy with the service.  A sink malfunction was dealt with quickly by a courteous young man.  The breakfast bar had a wide selection, eggs, sausage, waffles, oatmeal, cereal, toast, bagels, muffins.  It would be difficult to not find anything one might want for breakfast.More</t>
   </si>
   <si>
+    <t>SCL94556</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r258298342-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1355,6 +1520,9 @@
     <t>These suites are not the Four Seasons, so don't expect opulence.  However, it is perfect for a busy business stay, particularly for the price.  The staff was exceedingly friendly and accomodating from check-in through check-out.  It was great having a free local shuttle (which I used twice).My room was clean and had a kitchenette.  I didn't use the kitchen except to make coffee, but it's always good to have the option.  The desk has a set of overhead shelves/cubbies.  I know it's strange to note that, but too many perfunctory desks in most other hotels don't provide enough space to do real work, and I end up with papers spread over the bed.  Wi-Fi is free.  The gym is very small (three cardio machines and free weights), but functional.  A free breakfast buffet is provided, and offers much more than a "continental breakfast."  There is a steam tray with eggs and sausages, muffins, yogurt, oatmeal and make-your-own waffles.  A decent cuppa joe as well.My only quibbles were somewhat thin walls (I could hear talking, but not the speech itself) and cable tv which would drop the signal (it may have been the bad weather when I was there).  Otherwise, a great experience and I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Roman S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r256062786-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1541,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Alan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r254772220-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1568,9 @@
     <t>The people who designed this room have never stayed in a hotel.  I'm not a designer by any stretch but I could have done a much better job.  If you want to watch TV you have to sit on the couch or lay on your right side on the bed.  Just a terrible design.  I really don't get it.  I travel a fair amount and for a newly remodeled room it's just not good. There are no outlets on the night stand and there's only one nightstand, so if you want to plug your phone in you have to unplug the light or the clock.   No one does that today if the room has been refreshed. The bed is adequate, the A/C is quiet. There are no drawers for clothing just a closet with baskets and an advertisement for a closet shelf system which is code for we wanted to remodel very cheaply so we got sponsors to help defray the costs. I spoke with other associates and their rooms are similar.  I wouldn't stay here again.  If you don't care enough to make the room comfortable and workable then don't expect repeat customers. More</t>
   </si>
   <si>
+    <t>Oskee1334</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r238127697-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1598,9 @@
     <t>My room was clean and modern.  Nothing to complain about furnishings or cleanliness.  But walls were very thin and I can hear conversations next door way too clearly.  I was woken up 6am in the morning everyday because a guy next door was having a phone conversation.  I am guessing it is an oversea conference call or something.  At one time, I even heard a lady next door stirring a spoon in her coffee mug(?), not to mention her convesration with her husband on a phone.  I did not hear much from upstairs but I know someone was there.  So the ceiling/floor must have better soundproofing than walls.  For some privacy, I suggest turning kitchen fan and bathroom fan on.  Of course, one can always go outside.  Other than thin-wall issue, hotel was a good value for the price.  I would stay here again if I did not have other options in the area.More</t>
   </si>
   <si>
+    <t>cj_minneapolis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r236452968-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1616,9 @@
     <t>ProsHotel recently renovatedNice pool and outdoor lounge area in the back with a fire pit, etcFriendly serviceQuietComfortable roomConvenient to DFWBreakfast included - things like muffins, eggs, fruit, cereal, etcConsCan hear occasional airplane noise, but not terribleWe came back at 4pm, and our room was not serviced. We had to get ready for a wedding and left around 6 and asked our room be done on the way out. It never was.</t>
   </si>
   <si>
+    <t>marssl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r235405760-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1641,9 @@
   </si>
   <si>
     <t>Stayed in a two bedroom suite.  Hotel appears to have been renovated recently.  The furnishings were great.  Had plenty of room with a dining room table, couch, and armchair.  Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>MsAnn65</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109044-r233178643-TownePlace_Suites_Dallas_Las_Colinas-Irving_Texas.html</t>
@@ -1983,43 +2166,47 @@
       <c r="A2" t="n">
         <v>37136</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2033,50 +2220,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37136</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2090,50 +2281,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37136</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>180173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2147,50 +2342,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37136</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>38986</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2202,56 +2401,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37136</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>180174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2269,56 +2472,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37136</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>180175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2330,56 +2537,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37136</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2393,50 +2604,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37136</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>23406</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2448,56 +2663,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37136</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2511,50 +2730,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37136</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>180177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2574,50 +2797,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37136</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>180178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2631,50 +2858,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37136</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>123</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
-      </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2688,50 +2919,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37136</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>180179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2751,50 +2986,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37136</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2806,56 +3045,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37136</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>180181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>143</v>
       </c>
-      <c r="K16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>130</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2869,50 +3112,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37136</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2924,56 +3171,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37136</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>180183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2987,50 +3238,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37136</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3048,56 +3303,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37136</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>19432</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3109,56 +3368,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37136</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3176,56 +3439,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37136</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>180186</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3243,56 +3510,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37136</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>180187</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3304,56 +3575,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37136</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>180188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3365,56 +3640,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37136</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3430,56 +3709,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37136</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3499,50 +3782,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37136</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3556,50 +3843,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37136</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>180191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3619,50 +3910,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37136</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>48026</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3678,56 +3973,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="X29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="Y29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37136</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3743,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37136</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>11212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3808,56 +4111,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="X31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37136</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>180193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3869,56 +4176,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37136</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180194</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3930,56 +4241,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="X33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="Y33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37136</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>180195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>307</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3991,56 +4306,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="X34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37136</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>33113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>317</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4058,56 +4377,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37136</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>180196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4125,56 +4448,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="X36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37136</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180197</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4186,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="X37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="Y37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37136</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>90164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4255,50 +4586,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37136</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180198</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4316,56 +4651,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="X39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37136</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="J40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="K40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4385,50 +4724,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37136</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>180200</v>
+      </c>
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4446,50 +4789,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37136</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>265</v>
+      </c>
+      <c r="C42" t="s">
+        <v>377</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4503,50 +4850,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37136</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>180201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>384</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4566,50 +4917,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37136</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>389</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4621,56 +4976,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="X44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37136</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>180203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4684,50 +5043,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37136</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>180204</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="J46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4741,50 +5104,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37136</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>180205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4804,50 +5171,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37136</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>180206</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4865,56 +5236,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="X48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="Y48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37136</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>180207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="J49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="K49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4930,56 +5305,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="X49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="Y49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37136</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>180208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>440</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="J50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="K50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4997,56 +5376,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="X50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37136</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>180209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5058,56 +5441,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="X51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37136</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>180210</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5119,56 +5506,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="X52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37136</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>468</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="J53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="K53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="L53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5182,50 +5573,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37136</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>180212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5241,56 +5636,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="X54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37136</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C55" t="s">
+        <v>484</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5308,56 +5707,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="X55" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="Y55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37136</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>491</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="K56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="L56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5375,50 +5778,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37136</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>498</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5436,50 +5843,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37136</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>12608</v>
+      </c>
+      <c r="C58" t="s">
+        <v>505</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="J58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="K58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="L58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5491,56 +5902,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="X58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="Y58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37136</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>180215</v>
+      </c>
+      <c r="C59" t="s">
+        <v>514</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="J59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="K59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5558,56 +5973,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="X59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="Y59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37136</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>180216</v>
+      </c>
+      <c r="C60" t="s">
+        <v>524</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="J60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="K60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="L60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="O60" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5625,50 +6044,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37136</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>113476</v>
+      </c>
+      <c r="C61" t="s">
+        <v>530</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="O61" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5686,56 +6109,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37136</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180217</v>
+      </c>
+      <c r="C62" t="s">
+        <v>539</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="K62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="L62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5753,7 +6180,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
